--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2243166.827155616</v>
+        <v>2240302.949542848</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9597603.548047669</v>
+        <v>9597603.548047667</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.710907708664852</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>10.58695345037629</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -738,26 +738,26 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>29.89427490705985</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33.93991247395533</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,61 +817,61 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.44627538834367</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="K4" t="n">
-        <v>17.44799951871617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>27.0180752910075</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>11.85612676368803</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D6" t="n">
         <v>38.48106384277808</v>
@@ -984,16 +984,16 @@
         <v>33.89412103271894</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,76 +1051,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="D7" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.93225064571201</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="F7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>102.1704191411531</v>
       </c>
       <c r="G8" t="n">
-        <v>13.74888350366828</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335024</v>
+        <v>52.26183589334983</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999463</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="U8" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>83.26567494744086</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>133.7799720447597</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.48873607807923</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671866</v>
+        <v>48.53902377671845</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.240555821128</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>175.3318063516148</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.3318063516148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.90176726927689</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.79734426348796</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>175.3318063516148</v>
+        <v>155.5327544760612</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.9022120075003</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.64015276937488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>98.84732537601391</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>231.9385164432616</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>91.87132188694</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4360879462783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>29.67382008037395</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>27.31547498186424</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>164.5662136960142</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>31.66396365647125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>3.453391420150774</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>140.939995452456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
-        <v>120.6730984517103</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.14967908986335</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.1945421686265</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4313,7 +4313,7 @@
         <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44577852554302</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
         <v>56.50027777633954</v>
@@ -4331,19 +4331,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L2" t="n">
-        <v>69.91621969634798</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M2" t="n">
+        <v>34.95810984817397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.55862319738975</v>
+      </c>
+      <c r="O2" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102.1591365466055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="C3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D3" t="n">
         <v>67.19417015045701</v>
       </c>
       <c r="E3" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F3" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="G3" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>40.20652398783096</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>40.20652398783096</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M3" t="n">
-        <v>40.20652398783096</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N3" t="n">
-        <v>40.20652398783096</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="O3" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="P3" t="n">
-        <v>102.1591365466055</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4434,25 +4434,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>54.62217480869573</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4507,31 +4507,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="R4" t="n">
         <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="W4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="X4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F5" t="n">
-        <v>57.26334608731877</v>
+        <v>30.36947024985406</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4571,19 +4571,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>39.63549575806142</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M5" t="n">
-        <v>77.73174896241173</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>77.73174896241173</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O5" t="n">
-        <v>115.828002166762</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4592,25 +4592,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>103.0786082938738</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>64.20884683652224</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>64.20884683652224</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.20884683652224</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="6">
@@ -4623,43 +4623,43 @@
         <v>153.9242553711123</v>
       </c>
       <c r="C6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E6" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>9.385105424419159</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>39.63549575806142</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M6" t="n">
-        <v>39.63549575806142</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73174896241173</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0544939137607</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="D7" t="n">
-        <v>80.81800802212544</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="E7" t="n">
-        <v>41.94824656477385</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="F7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="G7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="H7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="I7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="J7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4744,10 +4744,10 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
         <v>115.0544939137607</v>
@@ -4768,7 +4768,7 @@
         <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="C8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="D8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="E8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="F8" t="n">
-        <v>27.91430562294563</v>
+        <v>191.1293792067307</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837332</v>
+        <v>132.7593507837338</v>
       </c>
       <c r="K8" t="n">
-        <v>133.2252181607544</v>
+        <v>306.3378390718331</v>
       </c>
       <c r="L8" t="n">
-        <v>306.8037064488531</v>
+        <v>479.9163273599324</v>
       </c>
       <c r="M8" t="n">
-        <v>480.3821947369518</v>
+        <v>622.5690614587443</v>
       </c>
       <c r="N8" t="n">
-        <v>527.7487371183606</v>
+        <v>669.9356038401543</v>
       </c>
       <c r="O8" t="n">
-        <v>701.3272254064593</v>
+        <v>701.3272254064618</v>
       </c>
       <c r="P8" t="n">
-        <v>701.3272254064593</v>
+        <v>701.3272254064618</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064593</v>
+        <v>701.3272254064618</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808531</v>
+        <v>648.5374921808559</v>
       </c>
       <c r="S8" t="n">
-        <v>473.1722181405032</v>
+        <v>648.5374921808559</v>
       </c>
       <c r="T8" t="n">
-        <v>296.0693834419023</v>
+        <v>471.4346574822545</v>
       </c>
       <c r="U8" t="n">
-        <v>118.9665487433015</v>
+        <v>294.331822783653</v>
       </c>
       <c r="V8" t="n">
-        <v>118.9665487433015</v>
+        <v>294.331822783653</v>
       </c>
       <c r="W8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="X8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.85980637214911</v>
+        <v>294.331822783653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.0922390630772</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="C9" t="n">
-        <v>298.0922390630772</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="D9" t="n">
-        <v>149.1578294018259</v>
+        <v>345.5447555453657</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812919</v>
+        <v>186.3073005399102</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812919</v>
+        <v>39.77274256679513</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812919</v>
+        <v>39.77274256679513</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812919</v>
+        <v>91.04961084172307</v>
       </c>
       <c r="K9" t="n">
-        <v>14.02654450812919</v>
+        <v>136.2183979828464</v>
       </c>
       <c r="L9" t="n">
-        <v>187.6050327962278</v>
+        <v>177.7607315107702</v>
       </c>
       <c r="M9" t="n">
-        <v>361.1835210843265</v>
+        <v>245.5955434848381</v>
       </c>
       <c r="N9" t="n">
-        <v>503.2128742869222</v>
+        <v>329.6343859988242</v>
       </c>
       <c r="O9" t="n">
-        <v>676.7913625750209</v>
+        <v>503.2128742869235</v>
       </c>
       <c r="P9" t="n">
-        <v>701.3272254064593</v>
+        <v>527.7487371183626</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064593</v>
+        <v>701.3272254064618</v>
       </c>
       <c r="R9" t="n">
-        <v>652.2979084602789</v>
+        <v>652.2979084602815</v>
       </c>
       <c r="S9" t="n">
-        <v>652.2979084602789</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="T9" t="n">
-        <v>652.2979084602789</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="U9" t="n">
-        <v>652.2979084602789</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="V9" t="n">
-        <v>652.2979084602789</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="W9" t="n">
-        <v>652.2979084602789</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="X9" t="n">
-        <v>475.195073761678</v>
+        <v>494.4791652066169</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.0922390630772</v>
+        <v>494.4791652066169</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.1215560092576</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="C10" t="n">
-        <v>178.1853730813507</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="D10" t="n">
-        <v>28.06873366901493</v>
+        <v>161.9396380905224</v>
       </c>
       <c r="E10" t="n">
-        <v>28.06873366901493</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="F10" t="n">
-        <v>28.06873366901493</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812919</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288396</v>
+        <v>72.14931057288445</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707602</v>
+        <v>202.052874770761</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882351</v>
+        <v>349.4070924882363</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831123</v>
+        <v>498.692172683114</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189934</v>
+        <v>620.5648112189956</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064593</v>
+        <v>701.3272254064618</v>
       </c>
       <c r="Q10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="R10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="S10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="T10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="U10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="V10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="W10" t="n">
-        <v>701.3272254064593</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="X10" t="n">
-        <v>524.2243907078584</v>
+        <v>516.1453074877253</v>
       </c>
       <c r="Y10" t="n">
-        <v>524.2243907078584</v>
+        <v>339.0424727891238</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2476448606602</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>785.3114619327533</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>984.9192356072707</v>
       </c>
     </row>
     <row r="14">
@@ -5267,55 +5267,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5759,13 +5759,13 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782905</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038291</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797692</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579358</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373471</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6017,22 +6017,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2167.088989850826</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1878.013763195024</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1623.329274989137</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.912104952176</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156764</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5467179762944</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6105350483875</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>665.4938956360518</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>517.5808020536587</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>370.6908545557483</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G28" t="n">
-        <v>203.4947552706282</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806534</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611464</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,43 +6944,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1922.614765620015</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.930277414128</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.513107377167</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.52355647915</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>563.9524623712553</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>417.0625148733449</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122182</v>
+        <v>249.8664155882248</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>108.1545844304229</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>242.2613672256909</v>
+        <v>240.8900576307836</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>246.6698164773692</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
@@ -8070,13 +8070,13 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4573042434636</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.6029932607663</v>
+        <v>166.231683665859</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,22 +8219,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>250.4751301597643</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>244.1059827132785</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>242.7727963709656</v>
       </c>
       <c r="O5" t="n">
-        <v>244.8579146936526</v>
+        <v>238.0901966419337</v>
       </c>
       <c r="P5" t="n">
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>152.7544096882483</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>159.973720214579</v>
       </c>
       <c r="N6" t="n">
         <v>150.2310236677773</v>
@@ -8310,7 +8310,7 @@
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.9043669419667</v>
+        <v>197.7656001854791</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070599</v>
+        <v>165.8884044070595</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8348713879233</v>
+        <v>101.5967358431879</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>143.6230976987799</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588833811</v>
+        <v>7.786846588832873</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.50693749366744</v>
+        <v>54.50693749366673</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576894</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>3.590962737398655</v>
+        <v>49.21600025368431</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3698532931067</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>106.8117942565976</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>58.57627342283885</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1203645525743</v>
+        <v>120.1203645525741</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.85618372286065</v>
+        <v>209.1879900744757</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-6.790165203036685e-14</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.92976817443702</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>187.3371490132302</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>54.58448189332941</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>194.3131525023041</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.08691039031268</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>187.7316302469143</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>112.9792378643596</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>40.23897475306337</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.680607402613617</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.197647871372</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.465793928349</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>67.07129414993904</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>853692.7388741457</v>
+        <v>853692.7388741456</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814465.9272701542</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.402600366</v>
+        <v>343539.4026003675</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192725</v>
+        <v>1086298.016192723</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491229</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230398</v>
+        <v>34635.69127230415</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575369</v>
+        <v>248550.2087575367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712356</v>
+        <v>305665.7657712352</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731922</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731948</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731944</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731965</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426732006</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426732009</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731964</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.31242673198</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.9356668596</v>
+        <v>52713.93566685967</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145777.6156593629</v>
+        <v>145777.6156593631</v>
       </c>
       <c r="C6" t="n">
-        <v>169591.7461184732</v>
+        <v>169591.7461184735</v>
       </c>
       <c r="D6" t="n">
-        <v>-86137.7766402487</v>
+        <v>-86137.77664024965</v>
       </c>
       <c r="E6" t="n">
-        <v>-590177.9086758596</v>
+        <v>-590212.6466012935</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914292</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914291</v>
       </c>
       <c r="J6" t="n">
-        <v>487239.9330575296</v>
+        <v>487205.1951320939</v>
       </c>
       <c r="K6" t="n">
-        <v>494951.3604713739</v>
+        <v>494916.6225459385</v>
       </c>
       <c r="L6" t="n">
-        <v>461484.4162445613</v>
+        <v>461449.6783191252</v>
       </c>
       <c r="M6" t="n">
-        <v>247569.8987593284</v>
+        <v>247535.1608338931</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.107516865</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168651</v>
+        <v>496085.3695914296</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523588</v>
+        <v>386.5211853523604</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332335</v>
+        <v>351.4999246332351</v>
       </c>
       <c r="E3" t="n">
-        <v>981.454314989315</v>
+        <v>981.4543149893129</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088368</v>
+        <v>136.8507425088374</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480335</v>
+        <v>997.3764817480325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822966</v>
+        <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088365</v>
+        <v>136.8507425088374</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480333</v>
+        <v>997.3764817480327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088368</v>
+        <v>136.8507425088374</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480335</v>
+        <v>997.3764817480325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>378.2194623635969</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.2890922913351</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>138.7685865143604</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>127.7508055483411</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>57.79806498122979</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>136.8238088593301</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>171.8330727295221</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>133.3069086246725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>141.7561951138671</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203386</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>256.4224908380192</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>388.1438732363119</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>166.5670582748677</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>193.9557137627098</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>183.9984819271906</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>289.2711946273568</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.7599048746349</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>134.2274351455376</v>
       </c>
       <c r="D6" t="n">
         <v>108.9640017218607</v>
@@ -27704,16 +27704,16 @@
         <v>123.750959422682</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5881485506058</v>
       </c>
       <c r="G6" t="n">
-        <v>98.78712457096123</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.3509163391592</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>148.2849507116209</v>
       </c>
       <c r="D7" t="n">
-        <v>114.7213519854934</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.9528988037911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9399841801532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4349480171685</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>180.1035895093167</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>304.7056266005583</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>238.4170771520528</v>
       </c>
       <c r="H8" t="n">
         <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933333</v>
+        <v>150.570932793333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.6116212999462</v>
       </c>
       <c r="T8" t="n">
-        <v>40.96204727732075</v>
+        <v>40.9620472773201</v>
       </c>
       <c r="U8" t="n">
-        <v>75.88953823530431</v>
+        <v>75.8895382353037</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>265.9752937699722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.8651084106412</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2060135747427</v>
+        <v>78.71727749666348</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767907</v>
+        <v>60.77218657767895</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.240555821128</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.8136629463422</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>30.44117885186265</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.35088942568953</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.500173830322467</v>
+        <v>4.500173830321842</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.3922066729727</v>
+        <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
-        <v>156.0301607160526</v>
+        <v>156.0301607160525</v>
       </c>
       <c r="I10" t="n">
-        <v>134.4896211379861</v>
+        <v>134.489621137986</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068435</v>
+        <v>44.08089719068414</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348821</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992553</v>
+        <v>145.9534932992552</v>
       </c>
       <c r="S10" t="n">
-        <v>211.8696945563088</v>
+        <v>211.8696945563087</v>
       </c>
       <c r="T10" t="n">
         <v>224.9674753772059</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>50.37784903742232</v>
+        <v>70.17690091297595</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>43.25284700047933</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-5.266896885419639e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.658055840560229e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466768</v>
+        <v>1.553854011466774</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493404</v>
+        <v>15.91340739493411</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707263</v>
+        <v>59.90495677707288</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057277</v>
+        <v>131.8814169057283</v>
       </c>
       <c r="K8" t="n">
-        <v>197.656057211116</v>
+        <v>197.6560572111169</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145422</v>
+        <v>245.2098169145432</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909643</v>
+        <v>272.8431681909655</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010443</v>
+        <v>277.2580559010455</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745216</v>
+        <v>261.8069200745227</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664357</v>
+        <v>223.4461491664367</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.798752380782</v>
+        <v>167.7987523807828</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779944</v>
+        <v>97.60728204779986</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629901</v>
+        <v>35.40844828629915</v>
       </c>
       <c r="T8" t="n">
-        <v>6.80199593519578</v>
+        <v>6.801995935195809</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173414</v>
+        <v>0.1243083209173419</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352624</v>
+        <v>0.8313851911352659</v>
       </c>
       <c r="H9" t="n">
-        <v>8.02943066175372</v>
+        <v>8.029430661753754</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373601</v>
+        <v>28.62444627373613</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089776</v>
+        <v>78.54766843089809</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369603</v>
+        <v>134.2504762369609</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383823</v>
+        <v>180.5163328383831</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170355</v>
+        <v>210.6540460170364</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944295</v>
+        <v>216.2294317944304</v>
       </c>
       <c r="O9" t="n">
-        <v>197.807686243485</v>
+        <v>197.8076862434858</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440661</v>
+        <v>158.7581072440667</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631609</v>
+        <v>106.1255903631613</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592447</v>
+        <v>51.61881037592468</v>
       </c>
       <c r="S9" t="n">
-        <v>15.4426152827098</v>
+        <v>15.44261528270986</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479412</v>
+        <v>3.351065748479425</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0546963941536357</v>
+        <v>0.05469639415363593</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091716</v>
+        <v>0.6970054162091744</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387003</v>
+        <v>6.197011791387029</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927219</v>
+        <v>20.96085378927227</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598843</v>
+        <v>49.27828292598863</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775646</v>
+        <v>80.9793565377568</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516799</v>
+        <v>103.6256961516804</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972249</v>
+        <v>109.2587671972254</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186272</v>
+        <v>106.6608379186276</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472912</v>
+        <v>98.51854737472954</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406195</v>
+        <v>84.29963688406229</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820618</v>
+        <v>58.36469898820642</v>
       </c>
       <c r="R10" t="n">
-        <v>31.3398980779142</v>
+        <v>31.33989807791433</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066347</v>
+        <v>12.14690348066352</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075551</v>
+        <v>2.978114051075563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777304</v>
+        <v>0.03801847724777319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305205</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305202</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>417.5509096439927</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L2" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>32.56860287904804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>28.63848405005938</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>36.92627338448402</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O5" t="n">
-        <v>38.48106384277808</v>
+        <v>31.71334579105919</v>
       </c>
       <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="N6" t="n">
         <v>38.48106384277808</v>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511152</v>
+        <v>119.9321275511157</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4705731081021911</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="M8" t="n">
-        <v>175.3318063516148</v>
+        <v>144.0936708068807</v>
       </c>
       <c r="N8" t="n">
-        <v>47.8449923044534</v>
+        <v>47.84499230445454</v>
       </c>
       <c r="O8" t="n">
-        <v>175.3318063516148</v>
+        <v>31.70870865283595</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>77.80107710464023</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>45.62503751628622</v>
       </c>
       <c r="L9" t="n">
-        <v>175.3318063516148</v>
+        <v>41.96195305850887</v>
       </c>
       <c r="M9" t="n">
-        <v>175.3318063516148</v>
+        <v>68.52001209501807</v>
       </c>
       <c r="N9" t="n">
-        <v>143.463993133935</v>
+        <v>84.88771971109708</v>
       </c>
       <c r="O9" t="n">
-        <v>175.3318063516148</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973581</v>
+        <v>24.78369982973646</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187361</v>
+        <v>58.70986471187395</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119961</v>
+        <v>131.2157214119965</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590655</v>
+        <v>148.842644159066</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978558</v>
+        <v>150.7930102978563</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887688</v>
+        <v>123.1036752887692</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895544</v>
+        <v>81.57819614895578</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561616</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561612</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294809</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36604,13 +36604,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>279.7094706696337</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
